--- a/_INTERPOLATION/areas-UTMboundaries.xlsx
+++ b/_INTERPOLATION/areas-UTMboundaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102C8EEB-980A-4AA1-A4EC-1FAB18C623E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F2609C-B5CF-45F8-AF73-F5027C1F5A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{757839A3-1EBF-494A-8018-106AAE52CE1D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>area</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new </t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -75,12 +84,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,8 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -411,113 +441,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE52DCAF-9785-427D-81F8-61A9CA132CA4}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>47</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>51</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>53</v>
+      </c>
+      <c r="J5">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>52</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>53</v>
+      </c>
+      <c r="J6">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>57</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>57</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
         <v>8</v>
       </c>
     </row>
